--- a/関連帳票/機能設計書/機能設計_管理者画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_管理者画面.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01F732E-03D5-452E-A7D3-A227B6A15415}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5449B37F-9AAB-4B84-982C-E6C947570ED9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="10" r:id="rId1"/>
-    <sheet name="管理者画面" sheetId="7" r:id="rId2"/>
-    <sheet name="管理者画面　画面処理" sheetId="8" r:id="rId3"/>
-    <sheet name="管理者画面　サーバー処理" sheetId="9" r:id="rId4"/>
+    <sheet name="メッセージ一覧" sheetId="11" r:id="rId2"/>
+    <sheet name="管理者画面" sheetId="7" r:id="rId3"/>
+    <sheet name="管理者画面　画面処理" sheetId="8" r:id="rId4"/>
+    <sheet name="管理者画面　サーバー処理" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>管理者画面に関するメモ</t>
     <rPh sb="0" eb="3">
@@ -248,6 +249,30 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象シート</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ一覧シートを追加した</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1547,7 +1572,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -1594,10 +1619,16 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5">
+        <v>43705</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
@@ -2116,6 +2147,427 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D4368A-9B4C-45FB-8738-26B6FD00FE54}">
+  <dimension ref="A1:C72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3.9140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="120.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.25" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="4"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="4"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="4"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="4"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="4"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="4"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="4"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="4"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="4"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="10"/>
+    </row>
+    <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="4"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="4"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+    </row>
+    <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="4"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="4"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="4"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="13"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="13"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="14"/>
+    </row>
+    <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="4"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="4"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="4"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="4"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="4"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="4"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+    </row>
+    <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="4"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+    </row>
+    <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="4"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+    </row>
+    <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="4"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="4"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="4"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+    </row>
+    <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="4"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="4"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="4"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+    </row>
+    <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="4"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+    </row>
+    <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="4"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="4"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+    </row>
+    <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="4"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12"/>
+    </row>
+    <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="4"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="12"/>
+    </row>
+    <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="4"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+    </row>
+    <row r="65" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="4"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="4"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="4"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="4"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="4"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="4"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="12"/>
+    </row>
+    <row r="71" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="4"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="12"/>
+    </row>
+    <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="4"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C710FA-3AD8-43FA-B35D-2EEE7DA002E1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2131,7 +2583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC48C337-9C50-49E7-8D4D-A5D87546BCC9}">
   <dimension ref="B2:D19"/>
   <sheetViews>
@@ -2207,7 +2659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFE3BA6-D11E-4243-A163-7694D711C160}">
   <dimension ref="B2:D11"/>
   <sheetViews>
